--- a/config_9.29/fish_config.xlsx
+++ b/config_9.29/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_6.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="187">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1144,35 +1144,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Fish032</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>bk_icon_jwy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Fish032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙虾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_lxq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp49</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp50</t>
+    <t>by_icon_xxboss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星鱼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1601,11 +1589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3795,7 +3783,7 @@
         <v>179</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>180</v>
@@ -3867,16 +3855,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="G32" s="6">
         <v>2.64</v>
@@ -3934,103 +3922,28 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" s="6">
-        <v>2.64</v>
-      </c>
-      <c r="H33" s="6">
-        <v>2.38</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J33" s="1">
-        <v>30</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
-        <v>200</v>
-      </c>
-      <c r="M33" s="1">
-        <v>4</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S33" s="7">
-        <v>1</v>
-      </c>
-      <c r="T33" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="U33" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="X33" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
